--- a/files/VarCovid_provincias.xlsx
+++ b/files/VarCovid_provincias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2433F13-23B6-064E-BBEA-2009142CB186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AB51F-C16A-D643-B4DC-C73814217B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{84092C75-0CD4-4A7E-B451-51E83AD9A219}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="180">
   <si>
     <t>provincia</t>
   </si>
@@ -258,9 +258,6 @@
     <t xml:space="preserve">Tipo de variable </t>
   </si>
   <si>
-    <t>Operación estadística</t>
-  </si>
-  <si>
     <t>Observaciones</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Cuantitativa continua</t>
   </si>
   <si>
-    <t>Experimental</t>
-  </si>
-  <si>
     <t>https://www.ine.es/jaxiT3/Tabla.htm?t=35176</t>
   </si>
   <si>
@@ -405,112 +399,7 @@
     <t>Municipios</t>
   </si>
   <si>
-    <t>Seccion</t>
-  </si>
-  <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>Hogares</t>
-  </si>
-  <si>
-    <t>Empresas</t>
-  </si>
-  <si>
-    <t>CNAE</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Empleo Relación</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>Agricultura y medio ambiente</t>
-  </si>
-  <si>
-    <t>Ciencia y tecnología</t>
-  </si>
-  <si>
     <t>Demografía y población</t>
-  </si>
-  <si>
-    <t>Economía</t>
-  </si>
-  <si>
-    <t>Industria, energía y construcción</t>
-  </si>
-  <si>
-    <t>Mercado laboral</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Nivel y condiciones de vida</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>ECV</t>
-  </si>
-  <si>
-    <t>EPF</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa discreta</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa continua</t>
-  </si>
-  <si>
-    <t>Variable cualitativa</t>
-  </si>
-  <si>
-    <t>Regresión lineal</t>
-  </si>
-  <si>
-    <t>Regresión logística</t>
-  </si>
-  <si>
-    <t>Series temporales multivariantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series temporales univariantes </t>
-  </si>
-  <si>
-    <t>Análisis de componentes principales</t>
-  </si>
-  <si>
-    <t>Análisis clúster</t>
-  </si>
-  <si>
-    <t>Análisis factorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis descriptivo </t>
-  </si>
-  <si>
-    <t>VarCovid_provincias</t>
   </si>
   <si>
     <r>
@@ -567,7 +456,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Procedimiento Cluster Jerárquico/ K-Means de las **provincias** en función a las variables **1Ola** y **2Ola**.:
+Procedimiento Cluster Jerárquico/ K-Means de las provincias en función a las variables 1Ola y 2Ola:
 </t>
     </r>
     <r>
@@ -665,12 +554,177 @@
       <t>5.Ver métodos Elbrow y Silhouette si hay otro número óptimo de clusters y en ese caso repetir el estudio.</t>
     </r>
   </si>
+  <si>
+    <t>30324 Estimación de Defunciones Semanales</t>
+  </si>
+  <si>
+    <t>IOE Operación estadística</t>
+  </si>
+  <si>
+    <t>Tipo de Análisis</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería, selvicultura y caza</t>
+  </si>
+  <si>
+    <t>Pesca y acuicultura</t>
+  </si>
+  <si>
+    <t>Medio ambiente y desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Extracción de productos energéticos y energía en general</t>
+  </si>
+  <si>
+    <t>Minería e industria</t>
+  </si>
+  <si>
+    <t>Construcción y vivienda</t>
+  </si>
+  <si>
+    <t>Servicios (estadísticas generales)</t>
+  </si>
+  <si>
+    <t>Comercio interior y exterior</t>
+  </si>
+  <si>
+    <t>Transporte y actividades conexas</t>
+  </si>
+  <si>
+    <t>Estadísticas de empresas y unidades de producción no referidas a sectores particulares</t>
+  </si>
+  <si>
+    <t>Financieras y seguros</t>
+  </si>
+  <si>
+    <t>Precios</t>
+  </si>
+  <si>
+    <t>Mercado laboral y salarios</t>
+  </si>
+  <si>
+    <t>Cuentas económicas</t>
+  </si>
+  <si>
+    <t>Administraciones públicas y asociaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías de la información y las comunicaciones (TIC)</t>
+  </si>
+  <si>
+    <t>Hostelería y turismo</t>
+  </si>
+  <si>
+    <t>Cultura, deporte y ocio</t>
+  </si>
+  <si>
+    <t>Educación y formación</t>
+  </si>
+  <si>
+    <t>Investigación científica y desarrollo tecnológico</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Protección social y servicios sociales</t>
+  </si>
+  <si>
+    <t>Seguridad y justicia</t>
+  </si>
+  <si>
+    <t>Nivel, calidad y condiciones de vida</t>
+  </si>
+  <si>
+    <t>Estadísticas no desglosables por sector o tema</t>
+  </si>
+  <si>
+    <t>Normalización y metodología general</t>
+  </si>
+  <si>
+    <t>Variable Respuesta</t>
+  </si>
+  <si>
+    <t>Contiene variables</t>
+  </si>
+  <si>
+    <t>Técnica de Estudio</t>
+  </si>
+  <si>
+    <t>Regresión Logística</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: LDA</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: QDA</t>
+  </si>
+  <si>
+    <t>Operaciones Estadísticas</t>
+  </si>
+  <si>
+    <t>Desagregación Territorial</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Estadística Experimental</t>
+  </si>
+  <si>
+    <t>Cuantitativa Discreta</t>
+  </si>
+  <si>
+    <t>Cuantitativa Continua</t>
+  </si>
+  <si>
+    <t>Cualitativa Binaria</t>
+  </si>
+  <si>
+    <t>Cualitativa Politómica</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Simple</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Múltiple</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Componentes principales</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Análisis Factorial</t>
+  </si>
+  <si>
+    <t>Cluster Jerárquico</t>
+  </si>
+  <si>
+    <t>Cluster K-Means</t>
+  </si>
+  <si>
+    <t>Series Temporales ARIMA</t>
+  </si>
+  <si>
+    <t>Series Temporales Holt Winters</t>
+  </si>
+  <si>
+    <t>Series Temporales VEC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,8 +796,31 @@
       <color theme="0"/>
       <name val="Calibri (Cuerpo)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,50 +829,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD6DDE4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E2F7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -968,7 +1057,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -998,32 +1087,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1051,11 +1156,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1379,176 +1505,176 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G22"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="B13" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4561,7 +4687,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4583,7 +4709,7 @@
         <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>71</v>
@@ -4592,350 +4718,350 @@
         <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="41" t="s">
+      <c r="D8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="E9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="41"/>
-    </row>
-    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="41" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="E13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="F15" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="41"/>
-    </row>
-    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="41"/>
+      <c r="H17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4954,6 +5080,11 @@
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{5BF3098F-62C6-EE4D-83EF-25F852E90C75}"/>
     <hyperlink ref="H9" r:id="rId2" xr:uid="{3383F3ED-9DAB-7A47-AA64-B715134B122F}"/>
+    <hyperlink ref="F3:F5" r:id="rId3" display="30324 Estimación de Defunciones Semanales" xr:uid="{9DABC49D-34A8-3641-9B2C-77A5F71018AE}"/>
+    <hyperlink ref="F6:F8" r:id="rId4" display="30324 Estimación de Defunciones Semanales" xr:uid="{31C34297-B2E3-8D44-A430-F5BA66F95B12}"/>
+    <hyperlink ref="F9:F11" r:id="rId5" display="30324 Estimación de Defunciones Semanales" xr:uid="{F5767998-05BB-3842-85A0-FC198F0C44E0}"/>
+    <hyperlink ref="F12:F14" r:id="rId6" display="30324 Estimación de Defunciones Semanales" xr:uid="{058E63F1-5D42-424A-9A44-BC2DB62F9F20}"/>
+    <hyperlink ref="F15:F17" r:id="rId7" display="30324 Estimación de Defunciones Semanales" xr:uid="{6E9C3E22-413C-1F47-82D1-0FA71FC1C2ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4961,10 +5092,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B8413A-B602-49FB-845E-C7A0FBEDD027}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4973,367 +5104,598 @@
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="47"/>
+      <c r="B40" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="47"/>
+      <c r="B42" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="48" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="22">
+      <c r="B43" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="48"/>
+      <c r="B44" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="22">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="48"/>
+      <c r="B45" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="22">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="48"/>
+      <c r="B46" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="22">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="22">
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="43"/>
+      <c r="B48" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="43"/>
+      <c r="B51" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="43"/>
+      <c r="B52" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="43"/>
+      <c r="B53" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="43"/>
+      <c r="B54" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="22">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="43"/>
+      <c r="B55" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="43"/>
+      <c r="B56" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="22">
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="43"/>
+      <c r="B57" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="43"/>
+      <c r="B58" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="15">
-        <v>1</v>
-      </c>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="24"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="24"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="24"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="24"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>